--- a/CashFlow/NXPI_cashflow.xlsx
+++ b/CashFlow/NXPI_cashflow.xlsx
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1261466100.0</v>
+        <v>3296000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1432466100.0</v>
+        <v>3287000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1389417600.0</v>
+        <v>2250000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1233018000.0</v>
+        <v>1199000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1317000000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>128000000.0</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1302611600.0</v>
+        <v>2468000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1164611600.0</v>
+        <v>2481000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>781412000.0</v>
+        <v>1455000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>743049400.0</v>
+        <v>801000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>685000000.0</v>
+        <v>-146000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-460000000.0</v>
